--- a/owlcms/src/main/resources/config/AgeGroups_de.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups_de.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\owlcms4\local\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5B44E-13D8-46CC-A431-0A0BFBF6CA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
     <sheet name="BW vs AgeGroups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="89">
   <si>
     <t>code</t>
   </si>
@@ -297,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -380,7 +387,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,14 +732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1448,8 +1455,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="Men"/>
-    <hyperlink ref="H3" r:id="rId2" location="Men"/>
+    <hyperlink ref="H2" r:id="rId1" location="Men" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" location="Men" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1457,14 +1464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2655,11 +2662,9 @@
         <v>34</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
@@ -2687,9 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2747,9 +2750,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
         <v>27</v>
       </c>
@@ -3961,11 +3962,15 @@
       <c r="P44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="R44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="1" t="s">
         <v>21</v>
       </c>

--- a/owlcms/src/main/resources/config/AgeGroups_de.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups_de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5B44E-13D8-46CC-A431-0A0BFBF6CA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A5136-30E6-4415-A341-EBCF2E14197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="85">
   <si>
     <t>code</t>
   </si>
@@ -148,12 +148,6 @@
     <t>F999 is always used as the last category in an age group</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>YTH</t>
   </si>
   <si>
-    <t>YOUTH</t>
-  </si>
-  <si>
     <t>IWF</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
   </si>
   <si>
     <t>M80+</t>
-  </si>
-  <si>
-    <t>M80</t>
   </si>
   <si>
     <t>M56</t>
@@ -339,18 +327,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -379,12 +361,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +810,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -863,7 +844,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -897,7 +878,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -931,7 +912,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -965,7 +946,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -999,7 +980,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1033,7 +1014,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1158,7 +1139,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -1190,7 +1171,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -1224,7 +1205,7 @@
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1258,7 +1239,7 @@
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>25</v>
@@ -1292,7 +1273,7 @@
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
@@ -1326,7 +1307,7 @@
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -1360,7 +1341,7 @@
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -1467,60 +1448,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1531,7 +1509,7 @@
       <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="b">
+      <c r="G2" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1554,13 +1532,11 @@
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -1571,7 +1547,7 @@
       <c r="F3" s="4">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="b">
+      <c r="G3" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1580,19 +1556,19 @@
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>36</v>
@@ -1606,13 +1582,11 @@
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1623,7 +1597,7 @@
       <c r="F4" s="4">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="b">
+      <c r="G4" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1632,19 +1606,19 @@
         <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>36</v>
@@ -1658,13 +1632,11 @@
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -1675,32 +1647,32 @@
       <c r="F5" s="4">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="b">
+      <c r="G5" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>36</v>
@@ -1712,13 +1684,11 @@
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1729,7 +1699,7 @@
       <c r="F6" s="4">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="b">
+      <c r="G6" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1772,13 +1742,11 @@
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1789,7 +1757,7 @@
       <c r="F7" s="4">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="b">
+      <c r="G7" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1832,13 +1800,11 @@
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1849,7 +1815,7 @@
       <c r="F8" s="4">
         <v>999</v>
       </c>
-      <c r="G8" s="7" t="b">
+      <c r="G8" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1892,13 +1858,11 @@
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -1909,7 +1873,7 @@
       <c r="F9" s="4">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="b">
+      <c r="G9" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1954,11 +1918,9 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -1969,7 +1931,7 @@
       <c r="F10" s="4">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="b">
+      <c r="G10" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2014,11 +1976,9 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -2029,7 +1989,7 @@
       <c r="F11" s="4">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="b">
+      <c r="G11" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2074,11 +2034,9 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -2089,7 +2047,7 @@
       <c r="F12" s="4">
         <v>49</v>
       </c>
-      <c r="G12" s="7" t="b">
+      <c r="G12" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2132,13 +2090,11 @@
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -2149,7 +2105,7 @@
       <c r="F13" s="4">
         <v>54</v>
       </c>
-      <c r="G13" s="7" t="b">
+      <c r="G13" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2194,11 +2150,9 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -2209,7 +2163,7 @@
       <c r="F14" s="4">
         <v>59</v>
       </c>
-      <c r="G14" s="7" t="b">
+      <c r="G14" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2252,13 +2206,11 @@
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -2269,7 +2221,7 @@
       <c r="F15" s="4">
         <v>64</v>
       </c>
-      <c r="G15" s="7" t="b">
+      <c r="G15" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2312,13 +2264,11 @@
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -2329,7 +2279,7 @@
       <c r="F16" s="4">
         <v>69</v>
       </c>
-      <c r="G16" s="7" t="b">
+      <c r="G16" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2372,13 +2322,11 @@
     </row>
     <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
@@ -2389,7 +2337,7 @@
       <c r="F17" s="4">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="b">
+      <c r="G17" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2432,13 +2380,11 @@
     </row>
     <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -2449,7 +2395,7 @@
       <c r="F18" s="4">
         <v>79</v>
       </c>
-      <c r="G18" s="7" t="b">
+      <c r="G18" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2492,13 +2438,11 @@
     </row>
     <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -2509,7 +2453,7 @@
       <c r="F19" s="4">
         <v>999</v>
       </c>
-      <c r="G19" s="7" t="b">
+      <c r="G19" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2552,13 +2496,11 @@
     </row>
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
@@ -2569,7 +2511,7 @@
       <c r="F20" s="4">
         <v>999</v>
       </c>
-      <c r="G20" s="7" t="b">
+      <c r="G20" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2612,13 +2554,11 @@
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -2629,7 +2569,7 @@
       <c r="F21" s="4">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="b">
+      <c r="G21" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2670,13 +2610,11 @@
     </row>
     <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -2687,7 +2625,7 @@
       <c r="F22" s="4">
         <v>20</v>
       </c>
-      <c r="G22" s="7" t="b">
+      <c r="G22" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2728,13 +2666,11 @@
     </row>
     <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -2745,7 +2681,7 @@
       <c r="F23" s="4">
         <v>999</v>
       </c>
-      <c r="G23" s="7" t="b">
+      <c r="G23" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2786,13 +2722,11 @@
     </row>
     <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -2803,7 +2737,7 @@
       <c r="F24" s="4">
         <v>999</v>
       </c>
-      <c r="G24" s="7" t="b">
+      <c r="G24" s="6" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -2848,13 +2782,11 @@
     </row>
     <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -2865,7 +2797,7 @@
       <c r="F25" s="4">
         <v>10</v>
       </c>
-      <c r="G25" s="7" t="b">
+      <c r="G25" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2888,13 +2820,11 @@
     </row>
     <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -2905,7 +2835,7 @@
       <c r="F26" s="4">
         <v>13</v>
       </c>
-      <c r="G26" s="7" t="b">
+      <c r="G26" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2919,16 +2849,16 @@
         <v>11</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
@@ -2942,13 +2872,11 @@
     </row>
     <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -2959,7 +2887,7 @@
       <c r="F27" s="4">
         <v>15</v>
       </c>
-      <c r="G27" s="7" t="b">
+      <c r="G27" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2971,22 +2899,22 @@
         <v>11</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>22</v>
@@ -2998,13 +2926,11 @@
     </row>
     <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -3015,7 +2941,7 @@
       <c r="F28" s="4">
         <v>17</v>
       </c>
-      <c r="G28" s="7" t="b">
+      <c r="G28" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3023,25 +2949,25 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>22</v>
@@ -3052,13 +2978,11 @@
     </row>
     <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -3069,7 +2993,7 @@
       <c r="F29" s="4">
         <v>20</v>
       </c>
-      <c r="G29" s="7" t="b">
+      <c r="G29" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3110,13 +3034,11 @@
     </row>
     <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -3127,7 +3049,7 @@
       <c r="F30" s="4">
         <v>23</v>
       </c>
-      <c r="G30" s="7" t="b">
+      <c r="G30" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3168,13 +3090,11 @@
     </row>
     <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -3185,7 +3105,7 @@
       <c r="F31" s="4">
         <v>99</v>
       </c>
-      <c r="G31" s="7" t="b">
+      <c r="G31" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3226,13 +3146,11 @@
     </row>
     <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -3243,7 +3161,7 @@
       <c r="F32" s="4">
         <v>34</v>
       </c>
-      <c r="G32" s="7" t="b">
+      <c r="G32" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3286,11 +3204,9 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -3301,7 +3217,7 @@
       <c r="F33" s="4">
         <v>39</v>
       </c>
-      <c r="G33" s="7" t="b">
+      <c r="G33" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3344,11 +3260,9 @@
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -3359,7 +3273,7 @@
       <c r="F34" s="4">
         <v>44</v>
       </c>
-      <c r="G34" s="7" t="b">
+      <c r="G34" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3402,11 +3316,9 @@
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -3417,7 +3329,7 @@
       <c r="F35" s="4">
         <v>49</v>
       </c>
-      <c r="G35" s="7" t="b">
+      <c r="G35" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3458,13 +3370,11 @@
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -3475,7 +3385,7 @@
       <c r="F36" s="4">
         <v>54</v>
       </c>
-      <c r="G36" s="7" t="b">
+      <c r="G36" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3518,11 +3428,9 @@
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -3533,7 +3441,7 @@
       <c r="F37" s="4">
         <v>59</v>
       </c>
-      <c r="G37" s="7" t="b">
+      <c r="G37" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3574,13 +3482,11 @@
     </row>
     <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -3591,7 +3497,7 @@
       <c r="F38" s="4">
         <v>64</v>
       </c>
-      <c r="G38" s="7" t="b">
+      <c r="G38" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3632,13 +3538,11 @@
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -3649,7 +3553,7 @@
       <c r="F39" s="4">
         <v>69</v>
       </c>
-      <c r="G39" s="7" t="b">
+      <c r="G39" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3690,13 +3594,11 @@
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -3707,7 +3609,7 @@
       <c r="F40" s="4">
         <v>74</v>
       </c>
-      <c r="G40" s="7" t="b">
+      <c r="G40" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3748,13 +3650,11 @@
     </row>
     <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -3765,7 +3665,7 @@
       <c r="F41" s="4">
         <v>79</v>
       </c>
-      <c r="G41" s="7" t="b">
+      <c r="G41" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3806,13 +3706,11 @@
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -3823,7 +3721,7 @@
       <c r="F42" s="4">
         <v>999</v>
       </c>
-      <c r="G42" s="7" t="b">
+      <c r="G42" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3864,13 +3762,11 @@
     </row>
     <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -3881,7 +3777,7 @@
       <c r="F43" s="4">
         <v>17</v>
       </c>
-      <c r="G43" s="7" t="b">
+      <c r="G43" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3922,13 +3818,11 @@
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -3939,7 +3833,7 @@
       <c r="F44" s="4">
         <v>20</v>
       </c>
-      <c r="G44" s="7" t="b">
+      <c r="G44" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3980,13 +3874,11 @@
     </row>
     <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -3997,7 +3889,7 @@
       <c r="F45" s="4">
         <v>999</v>
       </c>
-      <c r="G45" s="7" t="b">
+      <c r="G45" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -4038,13 +3930,11 @@
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -4055,7 +3945,7 @@
       <c r="F46" s="4">
         <v>999</v>
       </c>
-      <c r="G46" s="7" t="b">
+      <c r="G46" s="6" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
